--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12225" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="12225" windowHeight="6360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DemoA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ScriptLess" sheetId="2" r:id="rId2"/>
+    <sheet name="property" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +40,45 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>Key1</t>
+  </si>
+  <si>
+    <t>Key2</t>
+  </si>
+  <si>
+    <t>Key3</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>//input[@id='username']</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>//input[@name='pwd']</t>
+  </si>
+  <si>
+    <t>//div[text()='Login ']</t>
+  </si>
+  <si>
+    <t>//a[@id='logoutLink']</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>logout</t>
   </si>
 </sst>
 </file>
@@ -380,14 +419,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -427,24 +466,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>